--- a/raw_data/audio_test.xlsx
+++ b/raw_data/audio_test.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7da5c97e9815dc19/VAPE/experimental/raw_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_946CA29C7E38F94C3AAF2D94D27D786342BF6680" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{89EC0E82-2C59-49D3-A5F7-7377B6AAAD8D}"/>
+  <bookViews>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Liczba odpowiedzi 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Liczba odpowiedzi 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>Sygnatura czasowa</t>
   </si>
@@ -202,50 +211,30 @@
     <t>kobieta</t>
   </si>
   <si>
-    <t>Mężczyzna</t>
-  </si>
-  <si>
     <t>używam głośników</t>
   </si>
   <si>
-    <t>Kobieta</t>
-  </si>
-  <si>
-    <t>Męska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mężczyzna </t>
-  </si>
-  <si>
     <t>niebinarna</t>
   </si>
   <si>
-    <t>Mezczyzna</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>mężczyzna</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -255,40 +244,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -478,26 +472,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="64" width="21.57"/>
+    <col min="1" max="64" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44201.63044951389</v>
       </c>
@@ -681,206 +678,206 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44201.640245358794</v>
       </c>
       <c r="E3" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44201.74169645833</v>
+        <v>44201.741696458332</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="3">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AG4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AH4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AI4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AJ4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AL4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AM4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AP4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AQ4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AR4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AS4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AV4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AZ4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BB4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BC4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BD4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BE4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BF4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44201.857326956015</v>
       </c>
@@ -888,703 +885,703 @@
         <v>59</v>
       </c>
       <c r="C5" s="3">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="T5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AW5" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AY5" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AZ5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BA5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BD5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44201.86181689815</v>
+        <v>44201.861816898148</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="3">
-        <v>1974.0</v>
+        <v>1974</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AF6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AH6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AL6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AM6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AN6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AO6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AQ6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AR6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AT6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AZ6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BB6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BC6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BE6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BF6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44201.86668265046</v>
+        <v>44201.866682650463</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="3">
-        <v>1975.0</v>
+        <v>1975</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>4</v>
+      </c>
+      <c r="R7" s="3">
+        <v>4</v>
+      </c>
+      <c r="S7" s="3">
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>7</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>7</v>
+      </c>
+      <c r="W7" s="3">
+        <v>5</v>
+      </c>
+      <c r="X7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>7</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>6</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>6</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>3</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44201.883248379629</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AQ7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AZ7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="BD7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="BE7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="BF7" s="3">
-        <v>5.0</v>
+      <c r="C8" s="3">
+        <v>1973</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>7</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3">
+        <v>5</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3">
+        <v>7</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>7</v>
+      </c>
+      <c r="W8" s="3">
+        <v>7</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>7</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>7</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>6</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>44201.88324837963</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1973.0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="BD8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="BF8" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44201.892253576385</v>
       </c>
@@ -1592,703 +1589,703 @@
         <v>59</v>
       </c>
       <c r="C9" s="3">
-        <v>1961.0</v>
+        <v>1961</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AQ9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AZ9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BA9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BD9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44201.8998866551</v>
+        <v>44201.899886655097</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="3">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AZ10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BD10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44201.90672658564</v>
+        <v>44201.906726585643</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3">
-        <v>1975.0</v>
+        <v>1975</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S11" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AZ11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BD11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44201.93563856481</v>
+        <v>44201.935638564813</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="3">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AF12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AN12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AO12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AP12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AQ12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AR12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AT12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AY12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AZ12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BA12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BB12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BC12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BD12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BF12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44202.120421493055</v>
       </c>
@@ -2296,527 +2293,527 @@
         <v>59</v>
       </c>
       <c r="C13" s="3">
-        <v>1968.0</v>
+        <v>1968</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>6</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>5</v>
+      </c>
+      <c r="R13" s="3">
+        <v>4</v>
+      </c>
+      <c r="S13" s="3">
+        <v>5</v>
+      </c>
+      <c r="T13" s="3">
+        <v>5</v>
+      </c>
+      <c r="U13" s="3">
+        <v>3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>6</v>
+      </c>
+      <c r="W13" s="3">
+        <v>7</v>
+      </c>
+      <c r="X13" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>6</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>7</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>4</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>5</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>4</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>5</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>3</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>5</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44202.264352372687</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1995</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AQ13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AY13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="BC13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="BD13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="BE13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="BF13" s="3">
-        <v>4.0</v>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>7</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>7</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
+        <v>6</v>
+      </c>
+      <c r="T14" s="3">
+        <v>7</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>7</v>
+      </c>
+      <c r="W14" s="3">
+        <v>7</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>5</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>7</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>7</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>7</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="3">
+        <v>7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>44202.26435237269</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44202.345085289351</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="3">
-        <v>1995.0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AI14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AJ14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AQ14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AR14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AS14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AU14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AV14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AX14" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AY14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AZ14" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="BA14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="BB14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="BC14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="BD14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="BE14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="BF14" s="3">
-        <v>7.0</v>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>6</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
+        <v>7</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3">
+        <v>7</v>
+      </c>
+      <c r="W15" s="3">
+        <v>7</v>
+      </c>
+      <c r="X15" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>6</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>4</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>4</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>6</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>2</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>6</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>7</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>6</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>3</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>44202.34508528935</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2002.0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AQ15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AR15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AT15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AU15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AV15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AW15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="AX15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AY15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AZ15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="BA15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="BB15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="BC15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="BD15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="BE15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="BF15" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="16">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44202.37804491898</v>
       </c>
@@ -2824,879 +2821,879 @@
         <v>59</v>
       </c>
       <c r="C16" s="3">
-        <v>1979.0</v>
+        <v>1979</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="T16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AB16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AD16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AG16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AP16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AQ16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AV16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AW16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AY16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AZ16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BA16" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BC16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BD16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BE16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BF16" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44202.41316939815</v>
+        <v>44202.413169398147</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3">
-        <v>1971.0</v>
+        <v>1971</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M17" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X17" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS17" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AT17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV17" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AW17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AZ17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BD17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44202.47389958333</v>
+        <v>44202.473899583332</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="3">
-        <v>1976.0</v>
+        <v>1976</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K18" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V18" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="W18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AI18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AJ18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AL18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AM18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AN18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AO18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AP18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AQ18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AR18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AS18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AT18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AU18" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AV18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AX18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AY18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AZ18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BA18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BB18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BC18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BD18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BE18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BF18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44202.51865253472</v>
+        <v>44202.518652534724</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="3">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K19" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M19" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R19" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AF19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AM19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AN19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AO19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AP19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AQ19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AR19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AV19" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AW19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AZ19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BB19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BC19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BD19" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BE19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BF19" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44202.68294172453</v>
+        <v>44202.682941724532</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="3">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AB20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AD20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM20" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AN20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AV20" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AW20" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AZ20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BB20" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BC20" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BD20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44202.83757802083</v>
       </c>
@@ -3704,351 +3701,351 @@
         <v>59</v>
       </c>
       <c r="C21" s="3">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I21" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V21" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="W21" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="X21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AG21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP21" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AQ21" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AR21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AY21" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AZ21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BA21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BD21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BE21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BF21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44202.89712333333</v>
+        <v>44202.897123333329</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N22" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R22" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S22" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X22" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AK22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AN22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AQ22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AV22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AY22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AZ22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BA22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BC22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BD22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BF22" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44202.913396655094</v>
       </c>
@@ -4056,175 +4053,175 @@
         <v>59</v>
       </c>
       <c r="C23" s="3">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="T23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AD23" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AH23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AT23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AV23" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AW23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AY23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AZ23" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BA23" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BB23" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BC23" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BD23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44202.919858657406</v>
       </c>
@@ -4232,1407 +4229,1407 @@
         <v>59</v>
       </c>
       <c r="C24" s="3">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X24" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z24" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AT24" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AU24" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AV24" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AY24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AZ24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BA24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BD24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44202.92787792824</v>
+        <v>44202.927877928239</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L25" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O25" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="R25" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="T25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V25" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM25" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AN25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AO25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AQ25" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AR25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AV25" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AW25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AY25" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AZ25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB25" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BC25" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BD25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BF25" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44202.92826655092</v>
+        <v>44202.928266550924</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R26" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S26" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AB26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AD26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF26" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AG26" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR26" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS26" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AT26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AU26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AW26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX26" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AY26" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AZ26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BA26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BC26" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BD26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44202.96635878472</v>
+        <v>44202.966358784717</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S27" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AB27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AH27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AJ27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AL27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AQ27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AR27" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AT27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AU27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AV27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AW27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AX27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AY27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AZ27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BA27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BB27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BC27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BD27" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BE27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44203.51791659722</v>
+        <v>44203.517916597222</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="3">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R28" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U28" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V28" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="W28" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X28" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Z28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AJ28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK28" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AL28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO28" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AP28" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AQ28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AR28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX28" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AY28" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AZ28" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BA28" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BC28" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BD28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BE28" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BF28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>44203.54983534722</v>
+        <v>44203.549835347221</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="3">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L29" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="W29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="X29" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AB29" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AC29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AD29" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AF29" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AI29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AJ29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AL29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AM29" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AN29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AO29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AP29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AQ29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AR29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AS29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AT29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AV29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AW29" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX29" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AY29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AZ29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BA29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BB29" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BC29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BD29" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BE29" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BF29" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44203.65721138889</v>
+        <v>44203.657211388891</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K30" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R30" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AZ30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BC30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BD30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44203.71437410879</v>
+        <v>44203.714374108793</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="3">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U31" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="V31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="X31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AH31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AN31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AP31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AQ31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AR31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AT31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AV31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AW31" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY31" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AZ31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BA31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BB31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BC31" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BD31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BE31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BF31" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/raw_data/audio_test.xlsx
+++ b/raw_data/audio_test.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7da5c97e9815dc19/VAPE/experimental/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7da5c97e9815dc19/Documents/PythonScripts/vape/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_946CA29C7E38F94C3AAF2D94D27D786342BF6680" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{89EC0E82-2C59-49D3-A5F7-7377B6AAAD8D}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_946CA29C7E38F94C3AAF2D94D27D786342BF6680" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58FDB90E-C770-4CA6-86FC-3A056489D60D}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liczba odpowiedzi 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,168 +45,6 @@
     <t>płeć</t>
   </si>
   <si>
-    <t>a00 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p00 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v00 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a01 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p01 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v01 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a02 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p02 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v02 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a03 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p03 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v03 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a04 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p04 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v04 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a05 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p05 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v05 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a06 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p06 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v06 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a07 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p07 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v07 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a08 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p08 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v08 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a09 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p09 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v09 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a10 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p10 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v10 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a11 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p11 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v11 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a12 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p12 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v12 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a13 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p13 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v13 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a14 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p14 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v14 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a15 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p15 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v15 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a16 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p16 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v16 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
-    <t>a17 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>p17 - ten dźwięk jest</t>
-  </si>
-  <si>
-    <t>v17 - Chciał/a/bym przebywać w miejscu, gdzie słychać ten dźwięk.</t>
-  </si>
-  <si>
     <t>Opcja 1</t>
   </si>
   <si>
@@ -218,6 +67,168 @@
   </si>
   <si>
     <t>mężczyzna</t>
+  </si>
+  <si>
+    <t>a00</t>
+  </si>
+  <si>
+    <t>p00</t>
+  </si>
+  <si>
+    <t>v00</t>
+  </si>
+  <si>
+    <t>a01</t>
+  </si>
+  <si>
+    <t>p01</t>
+  </si>
+  <si>
+    <t>v01</t>
+  </si>
+  <si>
+    <t>a02</t>
+  </si>
+  <si>
+    <t>p02</t>
+  </si>
+  <si>
+    <t>v02</t>
+  </si>
+  <si>
+    <t>a03</t>
+  </si>
+  <si>
+    <t>p03</t>
+  </si>
+  <si>
+    <t>v03</t>
+  </si>
+  <si>
+    <t>a04</t>
+  </si>
+  <si>
+    <t>p04</t>
+  </si>
+  <si>
+    <t>v04</t>
+  </si>
+  <si>
+    <t>a05</t>
+  </si>
+  <si>
+    <t>p05</t>
+  </si>
+  <si>
+    <t>v05</t>
+  </si>
+  <si>
+    <t>a06</t>
+  </si>
+  <si>
+    <t>p06</t>
+  </si>
+  <si>
+    <t>v06</t>
+  </si>
+  <si>
+    <t>a07</t>
+  </si>
+  <si>
+    <t>p07</t>
+  </si>
+  <si>
+    <t>v07</t>
+  </si>
+  <si>
+    <t>a08</t>
+  </si>
+  <si>
+    <t>p08</t>
+  </si>
+  <si>
+    <t>v08</t>
+  </si>
+  <si>
+    <t>a09</t>
+  </si>
+  <si>
+    <t>p09</t>
+  </si>
+  <si>
+    <t>v09</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>v10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>v11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>v12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>v13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>v14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>v15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>v16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>v17</t>
   </si>
 </sst>
 </file>
@@ -484,9 +495,9 @@
   </sheetPr>
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="BB38" sqref="BB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -508,166 +519,166 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
@@ -675,7 +686,7 @@
         <v>44201.63044951389</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.2">
@@ -706,13 +717,13 @@
         <v>44201.741696458332</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>1993</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -882,13 +893,13 @@
         <v>44201.857326956015</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>2000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -1058,13 +1069,13 @@
         <v>44201.861816898148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>1974</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -1234,13 +1245,13 @@
         <v>44201.866682650463</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>1975</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -1410,13 +1421,13 @@
         <v>44201.883248379629</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>1973</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
@@ -1586,13 +1597,13 @@
         <v>44201.892253576385</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
         <v>1961</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
@@ -1762,13 +1773,13 @@
         <v>44201.899886655097</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
         <v>1995</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -1938,13 +1949,13 @@
         <v>44201.906726585643</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>1975</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
@@ -2114,13 +2125,13 @@
         <v>44201.935638564813</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
         <v>1990</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -2290,13 +2301,13 @@
         <v>44202.120421493055</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3">
         <v>1968</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -2466,13 +2477,13 @@
         <v>44202.264352372687</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>1995</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -2642,13 +2653,13 @@
         <v>44202.345085289351</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3">
         <v>2002</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -2818,13 +2829,13 @@
         <v>44202.37804491898</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
         <v>1979</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
@@ -2994,13 +3005,13 @@
         <v>44202.413169398147</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3">
         <v>1971</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -3170,13 +3181,13 @@
         <v>44202.473899583332</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <v>1976</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -3346,13 +3357,13 @@
         <v>44202.518652534724</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
         <v>1987</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
@@ -3522,13 +3533,13 @@
         <v>44202.682941724532</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
         <v>1987</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>6</v>
@@ -3698,13 +3709,13 @@
         <v>44202.83757802083</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <v>1994</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -3874,13 +3885,13 @@
         <v>44202.897123333329</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
         <v>1990</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -4050,13 +4061,13 @@
         <v>44202.913396655094</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
         <v>1994</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
@@ -4226,13 +4237,13 @@
         <v>44202.919858657406</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
         <v>1990</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>6</v>
@@ -4402,13 +4413,13 @@
         <v>44202.927877928239</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3">
         <v>1987</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3">
         <v>7</v>
@@ -4578,13 +4589,13 @@
         <v>44202.928266550924</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
         <v>1987</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -4754,13 +4765,13 @@
         <v>44202.966358784717</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3">
         <v>1994</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3">
         <v>6</v>
@@ -4930,13 +4941,13 @@
         <v>44203.517916597222</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
         <v>1991</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -5106,13 +5117,13 @@
         <v>44203.549835347221</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3">
         <v>1990</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3">
         <v>5</v>
@@ -5282,13 +5293,13 @@
         <v>44203.657211388891</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3">
         <v>1990</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3">
         <v>4</v>
@@ -5458,13 +5469,13 @@
         <v>44203.714374108793</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>1989</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3">
         <v>5</v>
